--- a/files/Heartland.xlsx
+++ b/files/Heartland.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C83441-F0BB-4873-B151-C7A134523DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F6BC1E-7AEB-45AE-AA70-98F32852648C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="180">
+  <si>
+    <t>Ref #</t>
+  </si>
   <si>
     <t>Cust ID</t>
   </si>
@@ -602,12 +605,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,6 +665,34 @@
       </right>
       <top style="thin">
         <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -672,6 +731,34 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="thin">
@@ -704,122 +791,128 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,108 +1296,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="7" width="5.42578125" customWidth="1"/>
-    <col min="9" max="10" width="6.85546875" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
+    <col min="8" max="9" width="5.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" style="30" customWidth="1"/>
-    <col min="14" max="14" width="6.85546875" style="25" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" customWidth="1"/>
-    <col min="17" max="17" width="3" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" customWidth="1"/>
+    <col min="16" max="17" width="6.85546875" style="20" customWidth="1"/>
     <col min="18" max="18" width="4.42578125" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" customWidth="1"/>
-    <col min="20" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="4.7109375" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="4.42578125" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="22"/>
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="P1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="V1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="24">
+        <v>356440136</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="4">
         <v>43739.200483680557</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>19</v>
@@ -1313,2048 +1413,2327 @@
         <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>22</v>
+      <c r="K2" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="27">
+        <v>22</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="25"/>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="17">
         <v>329</v>
       </c>
-      <c r="N2" s="22">
+      <c r="Q2" s="17">
         <v>329</v>
       </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="8">
+      <c r="B3" s="27">
+        <v>356439925</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="8">
         <v>43739.200033877314</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G3" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="28">
+        <v>22</v>
+      </c>
+      <c r="M3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="25"/>
+      <c r="O3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="18">
         <v>307.5</v>
       </c>
-      <c r="N3" s="23">
+      <c r="Q3" s="18">
         <v>307.5</v>
       </c>
-      <c r="O3" s="9">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="10"/>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="24">
+        <v>356439731</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="4">
         <v>43739.199620023144</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="27">
+        <v>22</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="25"/>
+      <c r="O4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="17">
         <v>117.4</v>
       </c>
-      <c r="N4" s="22">
+      <c r="Q4" s="17">
         <v>117.4</v>
       </c>
-      <c r="O4" s="5">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="8">
+      <c r="B5" s="27">
+        <v>356439376</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="8">
         <v>43739.198876504626</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="28">
+        <v>22</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="25"/>
+      <c r="O5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="18">
         <v>252</v>
       </c>
-      <c r="N5" s="23">
+      <c r="Q5" s="18">
         <v>252</v>
       </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="10"/>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="24">
+        <v>356437954</v>
+      </c>
+      <c r="C6" s="25"/>
+      <c r="D6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="4">
         <v>43739.195804085648</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>145</v>
+        <v>26</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="27">
+        <v>22</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="25"/>
+      <c r="O6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P6" s="17">
         <v>396.3</v>
       </c>
-      <c r="N6" s="22">
+      <c r="Q6" s="17">
         <v>396.3</v>
       </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="B7" s="27">
+        <v>356437650</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="8">
         <v>43739.195153043976</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>22</v>
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="28">
+        <v>22</v>
+      </c>
+      <c r="M7" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="25"/>
+      <c r="O7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="18">
         <v>393.7</v>
       </c>
-      <c r="N7" s="23">
+      <c r="Q7" s="18">
         <v>393.7</v>
       </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="10"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="10"/>
+    </row>
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B8" s="24">
+        <v>356437635</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="4">
         <v>43739.195118946758</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="27">
+        <v>22</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="25"/>
+      <c r="O8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="17">
         <v>321</v>
       </c>
-      <c r="N8" s="22">
+      <c r="Q8" s="17">
         <v>321</v>
       </c>
-      <c r="O8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R8" s="5">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="B9" s="27">
+        <v>356436319</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="8">
         <v>43739.192207025459</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>148</v>
+        <v>38</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="17" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="28">
+        <v>22</v>
+      </c>
+      <c r="M9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="25"/>
+      <c r="O9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="18">
         <v>122.1</v>
       </c>
-      <c r="N9" s="23">
+      <c r="Q9" s="18">
         <v>122.1</v>
       </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="10"/>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B10" s="24">
+        <v>356436134</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="4">
         <v>43739.19180054398</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>22</v>
+        <v>41</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="27">
+        <v>22</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="25"/>
+      <c r="O10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="17">
         <v>299.3</v>
       </c>
-      <c r="N10" s="22">
+      <c r="Q10" s="17">
         <v>299.3</v>
       </c>
-      <c r="O10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="8">
+      <c r="B11" s="27">
+        <v>356435413</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="8">
         <v>43739.190244791665</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="17" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="28">
+        <v>22</v>
+      </c>
+      <c r="M11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N11" s="25"/>
+      <c r="O11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="18">
         <v>375.7</v>
       </c>
-      <c r="N11" s="23">
+      <c r="Q11" s="18">
         <v>375.7</v>
       </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="10"/>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="10"/>
+    </row>
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="24">
+        <v>356435297</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="4">
         <v>43739.18999579861</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="27">
+        <v>22</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="25"/>
+      <c r="O12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="17">
         <v>238</v>
       </c>
-      <c r="N12" s="22">
+      <c r="Q12" s="17">
         <v>238</v>
       </c>
-      <c r="O12" s="5">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R12" s="5">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="B13" s="27">
+        <v>356434721</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="8">
         <v>43739.18872395833</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="28">
+        <v>22</v>
+      </c>
+      <c r="M13" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="25"/>
+      <c r="O13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="18">
         <v>357.94</v>
       </c>
-      <c r="N13" s="23">
+      <c r="Q13" s="18">
         <v>357.94</v>
       </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="10"/>
-    </row>
-    <row r="14" spans="1:19" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="R13" s="9">
+        <v>0</v>
+      </c>
+      <c r="S13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="10"/>
+    </row>
+    <row r="14" spans="1:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B14" s="24">
+        <v>356434353</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="4">
         <v>43739.187948067127</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="27">
+        <v>22</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N14" s="25"/>
+      <c r="O14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="17">
         <v>524.44000000000005</v>
       </c>
-      <c r="N14" s="22">
+      <c r="Q14" s="17">
         <v>524.44000000000005</v>
       </c>
-      <c r="O14" s="5">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="B15" s="27">
+        <v>356433861</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" s="8">
         <v>43739.186890196761</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="17" t="s">
-        <v>22</v>
+        <v>51</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>155</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M15" s="28">
+        <v>22</v>
+      </c>
+      <c r="M15" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" s="25"/>
+      <c r="O15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="18">
         <v>178.8</v>
       </c>
-      <c r="N15" s="23">
+      <c r="Q15" s="18">
         <v>178.8</v>
       </c>
-      <c r="O15" s="9">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="10"/>
-    </row>
-    <row r="16" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R15" s="9">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="10"/>
+    </row>
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="4">
+      <c r="B16" s="24">
+        <v>356433673</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" s="4">
         <v>43739.186483414349</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G16" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>155</v>
+        <v>20</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>22</v>
+        <v>53</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>156</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="M16" s="27">
+        <v>22</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="17">
         <v>217</v>
       </c>
-      <c r="N16" s="22">
+      <c r="Q16" s="17">
         <v>217</v>
       </c>
-      <c r="O16" s="5">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="6"/>
-    </row>
-    <row r="17" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R16" s="5">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="27">
+        <v>356433610</v>
+      </c>
+      <c r="C17" s="25"/>
+      <c r="D17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="8">
         <v>43739.186352118057</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="28">
+        <v>22</v>
+      </c>
+      <c r="M17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="18">
         <v>267.2</v>
       </c>
-      <c r="N17" s="23">
+      <c r="Q17" s="18">
         <v>267.2</v>
       </c>
-      <c r="O17" s="9">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="10"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R17" s="9">
+        <v>0</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="10"/>
+    </row>
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="24">
+        <v>356432881</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="4">
         <v>43739.184783912038</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>22</v>
+        <v>57</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="27">
+        <v>22</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="25"/>
+      <c r="O18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="17">
         <v>108.7</v>
       </c>
-      <c r="N18" s="22">
+      <c r="Q18" s="17">
         <v>108.7</v>
       </c>
-      <c r="O18" s="5">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="6"/>
-    </row>
-    <row r="19" spans="1:19" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="R18" s="5">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B19" s="27">
+        <v>356432263</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="8">
         <v>43739.183433368053</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="17" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="28">
+        <v>22</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="25"/>
+      <c r="O19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" s="18">
         <v>378.6</v>
       </c>
-      <c r="N19" s="23">
+      <c r="Q19" s="18">
         <v>378.6</v>
       </c>
-      <c r="O19" s="9">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="10"/>
-    </row>
-    <row r="20" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R19" s="9">
+        <v>0</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="10"/>
+    </row>
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="4">
+      <c r="B20" s="24">
+        <v>356432125</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="4">
         <v>43739.183127858792</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>22</v>
+        <v>61</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="27">
+        <v>22</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="25"/>
+      <c r="O20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" s="17">
         <v>231.11</v>
       </c>
-      <c r="N20" s="22">
+      <c r="Q20" s="17">
         <v>231.11</v>
       </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R20" s="5">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="8">
+      <c r="B21" s="27">
+        <v>356432044</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="8">
         <v>43739.182947650464</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>160</v>
+        <v>26</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K21" s="17" t="s">
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" s="28">
+        <v>22</v>
+      </c>
+      <c r="M21" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="25"/>
+      <c r="O21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="18">
         <v>503.6</v>
       </c>
-      <c r="N21" s="23">
+      <c r="Q21" s="18">
         <v>503.6</v>
       </c>
-      <c r="O21" s="9">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="10"/>
+    </row>
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="4">
+      <c r="B22" s="24">
+        <v>356430400</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="4">
         <v>43739.176018599537</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K22" s="18" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="27">
+        <v>22</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="25"/>
+      <c r="O22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="17">
         <v>423.3</v>
       </c>
-      <c r="N22" s="22">
+      <c r="Q22" s="17">
         <v>423.3</v>
       </c>
-      <c r="O22" s="5">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R22" s="5">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="6"/>
+    </row>
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B23" s="27">
+        <v>356429547</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="8">
         <v>43739.174147071761</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>22</v>
+        <v>67</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M23" s="28">
+        <v>22</v>
+      </c>
+      <c r="M23" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="25"/>
+      <c r="O23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P23" s="18">
         <v>141.69999999999999</v>
       </c>
-      <c r="N23" s="23">
+      <c r="Q23" s="18">
         <v>141.69999999999999</v>
       </c>
-      <c r="O23" s="9">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="10"/>
-    </row>
-    <row r="24" spans="1:19" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="10"/>
+    </row>
+    <row r="24" spans="1:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="4">
+      <c r="B24" s="24">
+        <v>356427624</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F24" s="4">
         <v>43739.16990883102</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>163</v>
+        <v>26</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24" s="27">
+        <v>22</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="25"/>
+      <c r="O24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" s="17">
         <v>416.5</v>
       </c>
-      <c r="N24" s="22">
+      <c r="Q24" s="17">
         <v>416.5</v>
       </c>
-      <c r="O24" s="5">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="6"/>
-    </row>
-    <row r="25" spans="1:19" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="R24" s="5">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="8">
+      <c r="B25" s="27">
+        <v>356427052</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="8">
         <v>43739.168682673611</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>22</v>
+        <v>71</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M25" s="28">
+        <v>22</v>
+      </c>
+      <c r="M25" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="25"/>
+      <c r="O25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P25" s="18">
         <v>252</v>
       </c>
-      <c r="N25" s="23">
+      <c r="Q25" s="18">
         <v>252</v>
       </c>
-      <c r="O25" s="9">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="10"/>
+    </row>
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="4">
+      <c r="B26" s="24">
+        <v>356426294</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="4">
         <v>43739.167028784723</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="18" t="s">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="M26" s="27">
+        <v>22</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="25"/>
+      <c r="O26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" s="17">
         <v>154.9</v>
       </c>
-      <c r="N26" s="22">
+      <c r="Q26" s="17">
         <v>154.9</v>
       </c>
-      <c r="O26" s="5">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="6"/>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R26" s="5">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="8">
+      <c r="B27" s="27">
+        <v>356425646</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="8">
         <v>43739.165591747682</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G27" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>166</v>
+        <v>20</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="17" t="s">
-        <v>22</v>
+        <v>75</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M27" s="28">
+        <v>22</v>
+      </c>
+      <c r="M27" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="25"/>
+      <c r="O27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P27" s="18">
         <v>6727.6</v>
       </c>
-      <c r="N27" s="23">
+      <c r="Q27" s="18">
         <v>6727.6</v>
       </c>
-      <c r="O27" s="9">
-        <v>0</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="10"/>
-    </row>
-    <row r="28" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R27" s="9">
+        <v>0</v>
+      </c>
+      <c r="S27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="10"/>
+    </row>
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="4">
+      <c r="B28" s="24">
+        <v>356424703</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="4">
         <v>43739.163527465273</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M28" s="27">
+        <v>22</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="25"/>
+      <c r="O28" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P28" s="17">
         <v>362.9</v>
       </c>
-      <c r="N28" s="22">
+      <c r="Q28" s="17">
         <v>362.9</v>
       </c>
-      <c r="O28" s="5">
-        <v>0</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="6"/>
-    </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R28" s="5">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="B29" s="27">
+        <v>356424701</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="8">
         <v>43739.163520752314</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="17" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M29" s="28">
+        <v>22</v>
+      </c>
+      <c r="M29" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="25"/>
+      <c r="O29" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="18">
         <v>142.9</v>
       </c>
-      <c r="N29" s="23">
+      <c r="Q29" s="18">
         <v>142.9</v>
       </c>
-      <c r="O29" s="9">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="10"/>
-    </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R29" s="9">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="10"/>
+    </row>
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="4">
+      <c r="B30" s="24">
+        <v>356424585</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F30" s="4">
         <v>43739.163259918976</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G30" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="18" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="27">
+        <v>22</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="25"/>
+      <c r="O30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P30" s="17">
         <v>399.1</v>
       </c>
-      <c r="N30" s="22">
+      <c r="Q30" s="17">
         <v>399.1</v>
       </c>
-      <c r="O30" s="5">
-        <v>0</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="6"/>
-    </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R30" s="5">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="8">
+      <c r="B31" s="27">
+        <v>356424367</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F31" s="8">
         <v>43739.162778206017</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>22</v>
+        <v>82</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M31" s="28">
+        <v>22</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="25"/>
+      <c r="O31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" s="18">
         <v>338.2</v>
       </c>
-      <c r="N31" s="23">
+      <c r="Q31" s="18">
         <v>338.2</v>
       </c>
-      <c r="O31" s="9">
-        <v>0</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="10"/>
-    </row>
-    <row r="32" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R31" s="9">
+        <v>0</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="10"/>
+    </row>
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="24">
+        <v>356422912</v>
+      </c>
+      <c r="C32" s="25"/>
+      <c r="D32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="4">
         <v>43739.159539814813</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>22</v>
+        <v>84</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M32" s="27">
+        <v>22</v>
+      </c>
+      <c r="M32" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="25"/>
+      <c r="O32" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P32" s="17">
         <v>223.8</v>
       </c>
-      <c r="N32" s="22">
+      <c r="Q32" s="17">
         <v>223.8</v>
       </c>
-      <c r="O32" s="5">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="6"/>
-    </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R32" s="5">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="6"/>
+    </row>
+    <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="8">
+      <c r="B33" s="27">
+        <v>356422734</v>
+      </c>
+      <c r="C33" s="25"/>
+      <c r="D33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" s="8">
         <v>43739.159142210643</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G33" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="17" t="s">
-        <v>22</v>
+        <v>86</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M33" s="28">
+        <v>22</v>
+      </c>
+      <c r="M33" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="25"/>
+      <c r="O33" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" s="18">
         <v>39.5</v>
       </c>
-      <c r="N33" s="23">
+      <c r="Q33" s="18">
         <v>39.5</v>
       </c>
-      <c r="O33" s="9">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="10"/>
-    </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R33" s="9">
+        <v>0</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="10"/>
+    </row>
+    <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="4">
+      <c r="B34" s="24">
+        <v>356421644</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F34" s="4">
         <v>43739.156668784723</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="18" t="s">
-        <v>22</v>
+        <v>88</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="M34" s="27">
+        <v>22</v>
+      </c>
+      <c r="M34" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="25"/>
+      <c r="O34" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P34" s="17">
         <v>247.55</v>
       </c>
-      <c r="N34" s="22">
+      <c r="Q34" s="17">
         <v>247.55</v>
       </c>
-      <c r="O34" s="5">
-        <v>0</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="6"/>
-    </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R34" s="5">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="6"/>
+    </row>
+    <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="8">
+      <c r="B35" s="27">
+        <v>356421589</v>
+      </c>
+      <c r="C35" s="25"/>
+      <c r="D35" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F35" s="8">
         <v>43739.156545289348</v>
       </c>
-      <c r="E35" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>173</v>
+        <v>38</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="17" t="s">
-        <v>22</v>
+        <v>90</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M35" s="28">
+        <v>22</v>
+      </c>
+      <c r="M35" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="25"/>
+      <c r="O35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P35" s="18">
         <v>258.64999999999998</v>
       </c>
-      <c r="N35" s="23">
+      <c r="Q35" s="18">
         <v>258.64999999999998</v>
       </c>
-      <c r="O35" s="9">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="10"/>
-    </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R35" s="9">
+        <v>0</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="10"/>
+    </row>
+    <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D36" s="4">
+      <c r="B36" s="24">
+        <v>356421483</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="4">
         <v>43739.156304629629</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>174</v>
+        <v>26</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>22</v>
+        <v>92</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M36" s="27">
+        <v>22</v>
+      </c>
+      <c r="M36" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="25"/>
+      <c r="O36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P36" s="17">
         <v>212.3</v>
       </c>
-      <c r="N36" s="22">
+      <c r="Q36" s="17">
         <v>212.3</v>
       </c>
-      <c r="O36" s="5">
-        <v>0</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="6"/>
-    </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R36" s="5">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="6"/>
+    </row>
+    <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="8">
+      <c r="B37" s="27">
+        <v>356421129</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="8">
         <v>43739.155513807869</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="17" t="s">
-        <v>22</v>
+        <v>94</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M37" s="28">
+        <v>22</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="25"/>
+      <c r="O37" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P37" s="18">
         <v>309.60000000000002</v>
       </c>
-      <c r="N37" s="23">
+      <c r="Q37" s="18">
         <v>309.60000000000002</v>
       </c>
-      <c r="O37" s="9">
-        <v>0</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="10"/>
-    </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R37" s="9">
+        <v>0</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="10"/>
+    </row>
+    <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="B38" s="24">
+        <v>356419359</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38" s="4">
         <v>43739.151483564812</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>176</v>
+        <v>26</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K38" s="18" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M38" s="27">
+        <v>22</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="25"/>
+      <c r="O38" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P38" s="17">
         <v>208.4</v>
       </c>
-      <c r="N38" s="22">
+      <c r="Q38" s="17">
         <v>208.4</v>
       </c>
-      <c r="O38" s="5">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="6"/>
-    </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="R38" s="5">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="6"/>
+    </row>
+    <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D39" s="8">
+      <c r="B39" s="27">
+        <v>356413195</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="8">
         <v>43739.137610682868</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G39" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="17" t="s">
-        <v>22</v>
+        <v>98</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M39" s="28">
+        <v>22</v>
+      </c>
+      <c r="M39" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="25"/>
+      <c r="O39" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P39" s="18">
         <v>217</v>
       </c>
-      <c r="N39" s="23">
+      <c r="Q39" s="18">
         <v>217</v>
       </c>
-      <c r="O39" s="9">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="1:19" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="10"/>
+    </row>
+    <row r="40" spans="1:22" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="29">
+        <v>356412116</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="12">
+      <c r="E40" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F40" s="12">
         <v>43739.135191400463</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>25</v>
-      </c>
       <c r="G40" s="11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="J40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="M40" s="29">
+        <v>22</v>
+      </c>
+      <c r="M40" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="30"/>
+      <c r="O40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="P40" s="19">
         <v>268.10000000000002</v>
       </c>
-      <c r="N40" s="24">
+      <c r="Q40" s="19">
         <v>268.10000000000002</v>
       </c>
-      <c r="O40" s="13">
-        <v>0</v>
-      </c>
-      <c r="P40" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="14"/>
+      <c r="R40" s="13">
+        <v>0</v>
+      </c>
+      <c r="S40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="14"/>
     </row>
   </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="M3:N3"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/files/Heartland.xlsx
+++ b/files/Heartland.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F6BC1E-7AEB-45AE-AA70-98F32852648C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD038AF1-13A8-4F36-9E5F-F5228F0AA21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,27 +444,12 @@
     <t>RECUR</t>
   </si>
   <si>
-    <t xml:space="preserve">Raul E.Pineda Orellana   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierre  Dreikha          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Reyes            </t>
-  </si>
-  <si>
     <t xml:space="preserve">Raysa Ferreira           </t>
   </si>
   <si>
     <t xml:space="preserve">Pedro Kreysa             </t>
   </si>
   <si>
-    <t xml:space="preserve">Dominique A. Osiac H.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierre Dreikha           </t>
-  </si>
-  <si>
     <t xml:space="preserve">Diego Perez              </t>
   </si>
   <si>
@@ -556,6 +541,21 @@
   </si>
   <si>
     <t xml:space="preserve">Evelyn Mendez Chavez     </t>
+  </si>
+  <si>
+    <t>Raul E.Pineda Orellana   '</t>
+  </si>
+  <si>
+    <t>Pierre  Dreikha @</t>
+  </si>
+  <si>
+    <t>Eduardo Reyes            54"</t>
+  </si>
+  <si>
+    <t>Dominique A. Osiac H.    "</t>
+  </si>
+  <si>
+    <t>Pierre Dreikha           '</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
     <numFmt numFmtId="164" formatCode="[$-10409]m/d/yyyy\ h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-10409]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -583,6 +583,12 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="5.95"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -791,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
@@ -870,6 +876,38 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
@@ -882,35 +920,11 @@
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -1296,10 +1310,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1311,7 +1325,7 @@
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
     <col min="8" max="9" width="5.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
     <col min="13" max="13" width="5.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.28515625" customWidth="1"/>
@@ -1329,10 +1343,10 @@
       <c r="A1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22"/>
+      <c r="B1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30"/>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1360,10 +1374,10 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="22"/>
+      <c r="N1" s="30"/>
       <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
@@ -1389,11 +1403,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="24.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="27">
         <v>356440136</v>
       </c>
       <c r="C2" s="25"/>
@@ -1419,12 +1433,12 @@
         <v>21</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N2" s="25"/>
@@ -1451,7 +1465,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="24">
         <v>356439925</v>
       </c>
       <c r="C3" s="25"/>
@@ -1476,13 +1490,13 @@
       <c r="J3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>143</v>
+      <c r="K3" s="32" t="s">
+        <v>176</v>
       </c>
       <c r="L3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N3" s="25"/>
@@ -1509,7 +1523,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="27">
         <v>356439731</v>
       </c>
       <c r="C4" s="25"/>
@@ -1534,13 +1548,13 @@
       <c r="J4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>144</v>
+      <c r="K4" s="33" t="s">
+        <v>177</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N4" s="25"/>
@@ -1567,7 +1581,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="24">
         <v>356439376</v>
       </c>
       <c r="C5" s="25"/>
@@ -1593,12 +1607,12 @@
         <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="25"/>
@@ -1625,7 +1639,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="27">
         <v>356437954</v>
       </c>
       <c r="C6" s="25"/>
@@ -1651,12 +1665,12 @@
         <v>33</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N6" s="25"/>
@@ -1683,7 +1697,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="24">
         <v>356437650</v>
       </c>
       <c r="C7" s="25"/>
@@ -1708,13 +1722,13 @@
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
+      <c r="K7" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="M7" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N7" s="25"/>
@@ -1741,7 +1755,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="27">
         <v>356437635</v>
       </c>
       <c r="C8" s="25"/>
@@ -1766,13 +1780,13 @@
       <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>148</v>
+      <c r="K8" s="33" t="s">
+        <v>179</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="25"/>
@@ -1799,7 +1813,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="24">
         <v>356436319</v>
       </c>
       <c r="C9" s="25"/>
@@ -1825,12 +1839,12 @@
         <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="28" t="s">
+      <c r="M9" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="25"/>
@@ -1857,7 +1871,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="27">
         <v>356436134</v>
       </c>
       <c r="C10" s="25"/>
@@ -1883,12 +1897,12 @@
         <v>41</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N10" s="25"/>
@@ -1915,7 +1929,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="24">
         <v>356435413</v>
       </c>
       <c r="C11" s="25"/>
@@ -1941,12 +1955,12 @@
         <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="28" t="s">
+      <c r="M11" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N11" s="25"/>
@@ -1973,7 +1987,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="27">
         <v>356435297</v>
       </c>
       <c r="C12" s="25"/>
@@ -1999,12 +2013,12 @@
         <v>45</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N12" s="25"/>
@@ -2031,7 +2045,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="24">
         <v>356434721</v>
       </c>
       <c r="C13" s="25"/>
@@ -2057,12 +2071,12 @@
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="25"/>
@@ -2089,7 +2103,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="27">
         <v>356434353</v>
       </c>
       <c r="C14" s="25"/>
@@ -2115,12 +2129,12 @@
         <v>49</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N14" s="25"/>
@@ -2147,7 +2161,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="24">
         <v>356433861</v>
       </c>
       <c r="C15" s="25"/>
@@ -2173,12 +2187,12 @@
         <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="M15" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="25"/>
@@ -2205,7 +2219,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="27">
         <v>356433673</v>
       </c>
       <c r="C16" s="25"/>
@@ -2231,12 +2245,12 @@
         <v>53</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N16" s="25"/>
@@ -2263,7 +2277,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="24">
         <v>356433610</v>
       </c>
       <c r="C17" s="25"/>
@@ -2289,12 +2303,12 @@
         <v>55</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N17" s="25"/>
@@ -2321,7 +2335,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="27">
         <v>356432881</v>
       </c>
       <c r="C18" s="25"/>
@@ -2347,12 +2361,12 @@
         <v>57</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N18" s="25"/>
@@ -2379,7 +2393,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="27">
+      <c r="B19" s="24">
         <v>356432263</v>
       </c>
       <c r="C19" s="25"/>
@@ -2405,12 +2419,12 @@
         <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="M19" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N19" s="25"/>
@@ -2437,7 +2451,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="27">
         <v>356432125</v>
       </c>
       <c r="C20" s="25"/>
@@ -2463,12 +2477,12 @@
         <v>61</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N20" s="25"/>
@@ -2495,7 +2509,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="24">
         <v>356432044</v>
       </c>
       <c r="C21" s="25"/>
@@ -2521,12 +2535,12 @@
         <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M21" s="28" t="s">
+      <c r="M21" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N21" s="25"/>
@@ -2553,7 +2567,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="27">
         <v>356430400</v>
       </c>
       <c r="C22" s="25"/>
@@ -2579,12 +2593,12 @@
         <v>65</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N22" s="25"/>
@@ -2611,7 +2625,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="24">
         <v>356429547</v>
       </c>
       <c r="C23" s="25"/>
@@ -2637,12 +2651,12 @@
         <v>67</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M23" s="28" t="s">
+      <c r="M23" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N23" s="25"/>
@@ -2669,7 +2683,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="27">
         <v>356427624</v>
       </c>
       <c r="C24" s="25"/>
@@ -2695,12 +2709,12 @@
         <v>69</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="M24" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N24" s="25"/>
@@ -2727,7 +2741,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="27">
+      <c r="B25" s="24">
         <v>356427052</v>
       </c>
       <c r="C25" s="25"/>
@@ -2753,12 +2767,12 @@
         <v>71</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M25" s="28" t="s">
+      <c r="M25" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N25" s="25"/>
@@ -2785,7 +2799,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="27">
         <v>356426294</v>
       </c>
       <c r="C26" s="25"/>
@@ -2811,12 +2825,12 @@
         <v>73</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N26" s="25"/>
@@ -2843,7 +2857,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="27">
+      <c r="B27" s="24">
         <v>356425646</v>
       </c>
       <c r="C27" s="25"/>
@@ -2869,12 +2883,12 @@
         <v>75</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L27" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M27" s="28" t="s">
+      <c r="M27" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N27" s="25"/>
@@ -2901,7 +2915,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="27">
         <v>356424703</v>
       </c>
       <c r="C28" s="25"/>
@@ -2927,12 +2941,12 @@
         <v>77</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="M28" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N28" s="25"/>
@@ -2959,7 +2973,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="24">
         <v>356424701</v>
       </c>
       <c r="C29" s="25"/>
@@ -2985,12 +2999,12 @@
         <v>79</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M29" s="28" t="s">
+      <c r="M29" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N29" s="25"/>
@@ -3017,7 +3031,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="27">
         <v>356424585</v>
       </c>
       <c r="C30" s="25"/>
@@ -3043,12 +3057,12 @@
         <v>79</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M30" s="26" t="s">
+      <c r="M30" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N30" s="25"/>
@@ -3075,7 +3089,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="27">
+      <c r="B31" s="24">
         <v>356424367</v>
       </c>
       <c r="C31" s="25"/>
@@ -3101,12 +3115,12 @@
         <v>82</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="28" t="s">
+      <c r="M31" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N31" s="25"/>
@@ -3133,7 +3147,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="27">
         <v>356422912</v>
       </c>
       <c r="C32" s="25"/>
@@ -3159,12 +3173,12 @@
         <v>84</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N32" s="25"/>
@@ -3191,7 +3205,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="27">
+      <c r="B33" s="24">
         <v>356422734</v>
       </c>
       <c r="C33" s="25"/>
@@ -3217,12 +3231,12 @@
         <v>86</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M33" s="28" t="s">
+      <c r="M33" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N33" s="25"/>
@@ -3249,7 +3263,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="27">
         <v>356421644</v>
       </c>
       <c r="C34" s="25"/>
@@ -3275,12 +3289,12 @@
         <v>88</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N34" s="25"/>
@@ -3307,7 +3321,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="27">
+      <c r="B35" s="24">
         <v>356421589</v>
       </c>
       <c r="C35" s="25"/>
@@ -3333,12 +3347,12 @@
         <v>90</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="28" t="s">
+      <c r="M35" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N35" s="25"/>
@@ -3365,7 +3379,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="27">
         <v>356421483</v>
       </c>
       <c r="C36" s="25"/>
@@ -3391,12 +3405,12 @@
         <v>92</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M36" s="26" t="s">
+      <c r="M36" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N36" s="25"/>
@@ -3423,7 +3437,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="27">
+      <c r="B37" s="24">
         <v>356421129</v>
       </c>
       <c r="C37" s="25"/>
@@ -3449,12 +3463,12 @@
         <v>94</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M37" s="28" t="s">
+      <c r="M37" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N37" s="25"/>
@@ -3481,7 +3495,7 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="27">
         <v>356419359</v>
       </c>
       <c r="C38" s="25"/>
@@ -3507,12 +3521,12 @@
         <v>96</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="M38" s="28" t="s">
         <v>23</v>
       </c>
       <c r="N38" s="25"/>
@@ -3539,7 +3553,7 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="27">
+      <c r="B39" s="24">
         <v>356413195</v>
       </c>
       <c r="C39" s="25"/>
@@ -3565,12 +3579,12 @@
         <v>98</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M39" s="28" t="s">
+      <c r="M39" s="26" t="s">
         <v>23</v>
       </c>
       <c r="N39" s="25"/>
@@ -3597,10 +3611,10 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="21">
         <v>356412116</v>
       </c>
-      <c r="C40" s="30"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="11" t="s">
         <v>140</v>
       </c>
@@ -3623,15 +3637,15 @@
         <v>69</v>
       </c>
       <c r="K40" s="11" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L40" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M40" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="N40" s="30"/>
+      <c r="M40" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="22"/>
       <c r="O40" s="11" t="s">
         <v>100</v>
       </c>
@@ -3653,6 +3667,78 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="M36:N36"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="M40:N40"/>
     <mergeCell ref="B37:C37"/>
@@ -3661,82 +3747,10 @@
     <mergeCell ref="M38:N38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="M3:N3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;L&amp;C&amp;R</oddFooter>
   </headerFooter>
